--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_seurat_clusters_speed_coherence.xlsx
@@ -434,41 +434,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="2">
